--- a/config_12.22/activity_exchange_server.xlsx
+++ b/config_12.22/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="164">
   <si>
     <t>id|</t>
   </si>
@@ -899,12 +899,52 @@
     <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>圣诞福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞福利-cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_sd_lh",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_sd_lh",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在欢乐冬至活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用电烤炉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝山咖啡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龙鱼油</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在圣诞福利活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,8 +1017,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1074,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1067,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,6 +1291,44 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1513,7 +1610,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1702,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
@@ -1733,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1766,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1799,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
@@ -1832,7 +1929,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="38"/>
       <c r="P9" s="38"/>
@@ -1903,31 +2000,71 @@
       <c r="O11" s="52"/>
       <c r="P11" s="52"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+    <row r="12" spans="1:16" s="64" customFormat="1" ht="16.5">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1608595200</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1609171199</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="61">
+        <v>1</v>
+      </c>
+      <c r="I12" s="61">
+        <v>11</v>
+      </c>
+      <c r="J12" s="63">
+        <v>11</v>
+      </c>
+      <c r="K12" s="64">
+        <v>1</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="1:16" s="64" customFormat="1" ht="16.5">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="66">
+        <v>1608595200</v>
+      </c>
+      <c r="D13" s="66">
+        <v>1609171199</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="61">
+        <v>1</v>
+      </c>
+      <c r="I13" s="61">
+        <v>12</v>
+      </c>
+      <c r="J13" s="63">
+        <v>12</v>
+      </c>
+      <c r="K13" s="64">
+        <v>1</v>
+      </c>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="16.5">
       <c r="A14" s="8"/>
@@ -2107,8 +2244,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2250,26 +2387,30 @@
         <v>152</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="61" customFormat="1">
+      <c r="A12" s="61">
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="61" customFormat="1">
+      <c r="A13" s="61">
+        <v>12</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16"/>
@@ -2292,11 +2433,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4178,167 +4319,430 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="15"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="15"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="19"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="15"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="19"/>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="15"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="19"/>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="15"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="19"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="15"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="19"/>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="15"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="15"/>
-      <c r="B81" s="19"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="15"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="19"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="15"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="19"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="15"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="15"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="19"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="15"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="19"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="15"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="19"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="15"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="15"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="19"/>
-    </row>
-    <row r="90" spans="1:8" s="8" customFormat="1">
+    <row r="74" spans="1:10" s="61" customFormat="1">
+      <c r="A74" s="61">
+        <v>73</v>
+      </c>
+      <c r="B74" s="67">
+        <v>11</v>
+      </c>
+      <c r="C74" s="67">
+        <v>1</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="J74" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" s="61" customFormat="1">
+      <c r="A75" s="61">
+        <v>74</v>
+      </c>
+      <c r="B75" s="67">
+        <v>11</v>
+      </c>
+      <c r="C75" s="67">
+        <v>2</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" s="61" customFormat="1">
+      <c r="A76" s="61">
+        <v>75</v>
+      </c>
+      <c r="B76" s="67">
+        <v>11</v>
+      </c>
+      <c r="C76" s="67">
+        <v>3</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="61" customFormat="1">
+      <c r="A77" s="61">
+        <v>76</v>
+      </c>
+      <c r="B77" s="67">
+        <v>11</v>
+      </c>
+      <c r="C77" s="67">
+        <v>4</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="67"/>
+      <c r="F77" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" s="67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="61" customFormat="1">
+      <c r="A78" s="61">
+        <v>77</v>
+      </c>
+      <c r="B78" s="67">
+        <v>11</v>
+      </c>
+      <c r="C78" s="67">
+        <v>5</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="67"/>
+      <c r="F78" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="J78" s="61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="61" customFormat="1">
+      <c r="A79" s="61">
+        <v>78</v>
+      </c>
+      <c r="B79" s="67">
+        <v>11</v>
+      </c>
+      <c r="C79" s="67">
+        <v>6</v>
+      </c>
+      <c r="D79" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E79" s="67"/>
+      <c r="F79" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G79" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" s="61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="61" customFormat="1">
+      <c r="A80" s="61">
+        <v>79</v>
+      </c>
+      <c r="B80" s="67">
+        <v>11</v>
+      </c>
+      <c r="C80" s="67">
+        <v>7</v>
+      </c>
+      <c r="D80" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E80" s="67"/>
+      <c r="F80" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J80" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="61" customFormat="1">
+      <c r="A81" s="61">
+        <v>80</v>
+      </c>
+      <c r="B81" s="67">
+        <v>11</v>
+      </c>
+      <c r="C81" s="67">
+        <v>8</v>
+      </c>
+      <c r="D81" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E81" s="67"/>
+      <c r="F81" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G81" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" s="61" customFormat="1">
+      <c r="A82" s="70">
+        <v>81</v>
+      </c>
+      <c r="B82" s="71">
+        <v>12</v>
+      </c>
+      <c r="C82" s="71">
+        <v>1</v>
+      </c>
+      <c r="D82" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="70"/>
+      <c r="J82" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="61" customFormat="1">
+      <c r="A83" s="70">
+        <v>82</v>
+      </c>
+      <c r="B83" s="71">
+        <v>12</v>
+      </c>
+      <c r="C83" s="71">
+        <v>2</v>
+      </c>
+      <c r="D83" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="70"/>
+      <c r="J83" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="61" customFormat="1">
+      <c r="A84" s="70">
+        <v>83</v>
+      </c>
+      <c r="B84" s="71">
+        <v>12</v>
+      </c>
+      <c r="C84" s="71">
+        <v>3</v>
+      </c>
+      <c r="D84" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="70"/>
+      <c r="J84" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="61" customFormat="1">
+      <c r="A85" s="70">
+        <v>84</v>
+      </c>
+      <c r="B85" s="71">
+        <v>12</v>
+      </c>
+      <c r="C85" s="71">
+        <v>4</v>
+      </c>
+      <c r="D85" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E85" s="71"/>
+      <c r="F85" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
+    </row>
+    <row r="86" spans="1:10" s="61" customFormat="1">
+      <c r="A86" s="70">
+        <v>85</v>
+      </c>
+      <c r="B86" s="71">
+        <v>12</v>
+      </c>
+      <c r="C86" s="71">
+        <v>5</v>
+      </c>
+      <c r="D86" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" s="71"/>
+      <c r="F86" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="61" customFormat="1">
+      <c r="A87" s="70">
+        <v>86</v>
+      </c>
+      <c r="B87" s="71">
+        <v>12</v>
+      </c>
+      <c r="C87" s="71">
+        <v>6</v>
+      </c>
+      <c r="D87" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="71"/>
+      <c r="F87" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="61" customFormat="1">
+      <c r="A88" s="70">
+        <v>87</v>
+      </c>
+      <c r="B88" s="71">
+        <v>12</v>
+      </c>
+      <c r="C88" s="71">
+        <v>7</v>
+      </c>
+      <c r="D88" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="71"/>
+      <c r="F88" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="I88" s="70"/>
+      <c r="J88" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="61" customFormat="1">
+      <c r="A89" s="70">
+        <v>88</v>
+      </c>
+      <c r="B89" s="71">
+        <v>12</v>
+      </c>
+      <c r="C89" s="71">
+        <v>8</v>
+      </c>
+      <c r="D89" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" s="71"/>
+      <c r="F89" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1">
       <c r="A90" s="15"/>
       <c r="B90" s="19"/>
       <c r="C90" s="15"/>
@@ -4348,7 +4752,7 @@
       <c r="G90" s="21"/>
       <c r="H90" s="19"/>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1">
+    <row r="91" spans="1:10" s="8" customFormat="1">
       <c r="A91" s="15"/>
       <c r="B91" s="19"/>
       <c r="C91" s="15"/>
@@ -4358,7 +4762,7 @@
       <c r="G91" s="21"/>
       <c r="H91" s="19"/>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1">
+    <row r="92" spans="1:10" s="8" customFormat="1">
       <c r="A92" s="15"/>
       <c r="B92" s="19"/>
       <c r="C92" s="15"/>
@@ -4368,7 +4772,7 @@
       <c r="G92" s="21"/>
       <c r="H92" s="19"/>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1">
+    <row r="93" spans="1:10" s="8" customFormat="1">
       <c r="A93" s="15"/>
       <c r="B93" s="19"/>
       <c r="C93" s="15"/>
@@ -4378,7 +4782,7 @@
       <c r="G93" s="21"/>
       <c r="H93" s="19"/>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1">
+    <row r="94" spans="1:10" s="8" customFormat="1">
       <c r="A94" s="15"/>
       <c r="B94" s="19"/>
       <c r="C94" s="15"/>
@@ -4388,7 +4792,7 @@
       <c r="G94" s="21"/>
       <c r="H94" s="19"/>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1">
+    <row r="95" spans="1:10" s="8" customFormat="1">
       <c r="A95" s="15"/>
       <c r="B95" s="19"/>
       <c r="C95" s="15"/>
@@ -4398,7 +4802,7 @@
       <c r="G95" s="21"/>
       <c r="H95" s="19"/>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1">
+    <row r="96" spans="1:10" s="8" customFormat="1">
       <c r="A96" s="15"/>
       <c r="B96" s="19"/>
       <c r="C96" s="15"/>

--- a/config_12.22/activity_exchange_server.xlsx
+++ b/config_12.22/activity_exchange_server.xlsx
@@ -1126,7 +1126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,7 +1313,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2433,11 +2432,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J85" sqref="J85"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4329,14 +4328,14 @@
       <c r="C74" s="67">
         <v>1</v>
       </c>
-      <c r="D74" s="68" t="s">
-        <v>132</v>
+      <c r="D74" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E74" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
+      <c r="F74" s="68"/>
+      <c r="G74" s="68"/>
       <c r="H74" s="67" t="s">
         <v>93</v>
       </c>
@@ -4354,14 +4353,14 @@
       <c r="C75" s="67">
         <v>2</v>
       </c>
-      <c r="D75" s="68" t="s">
-        <v>132</v>
+      <c r="D75" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E75" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="67" t="s">
         <v>94</v>
       </c>
@@ -4379,14 +4378,14 @@
       <c r="C76" s="67">
         <v>3</v>
       </c>
-      <c r="D76" s="68" t="s">
-        <v>132</v>
+      <c r="D76" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E76" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
       <c r="H76" s="67" t="s">
         <v>55</v>
       </c>
@@ -4404,14 +4403,14 @@
       <c r="C77" s="67">
         <v>4</v>
       </c>
-      <c r="D77" s="68" t="s">
-        <v>132</v>
+      <c r="D77" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E77" s="67"/>
-      <c r="F77" s="69" t="s">
+      <c r="F77" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G77" s="69" t="s">
+      <c r="G77" s="68" t="s">
         <v>103</v>
       </c>
       <c r="H77" s="67" t="s">
@@ -4428,14 +4427,14 @@
       <c r="C78" s="67">
         <v>5</v>
       </c>
-      <c r="D78" s="68" t="s">
-        <v>132</v>
+      <c r="D78" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E78" s="67"/>
-      <c r="F78" s="69" t="s">
+      <c r="F78" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G78" s="69" t="s">
+      <c r="G78" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H78" s="62" t="s">
@@ -4455,14 +4454,14 @@
       <c r="C79" s="67">
         <v>6</v>
       </c>
-      <c r="D79" s="68" t="s">
-        <v>132</v>
+      <c r="D79" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E79" s="67"/>
-      <c r="F79" s="69" t="s">
+      <c r="F79" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G79" s="69" t="s">
+      <c r="G79" s="68" t="s">
         <v>63</v>
       </c>
       <c r="H79" s="62" t="s">
@@ -4482,14 +4481,14 @@
       <c r="C80" s="67">
         <v>7</v>
       </c>
-      <c r="D80" s="68" t="s">
-        <v>132</v>
+      <c r="D80" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E80" s="67"/>
-      <c r="F80" s="69" t="s">
+      <c r="F80" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G80" s="69" t="s">
+      <c r="G80" s="68" t="s">
         <v>56</v>
       </c>
       <c r="H80" s="62" t="s">
@@ -4509,14 +4508,14 @@
       <c r="C81" s="67">
         <v>8</v>
       </c>
-      <c r="D81" s="68" t="s">
-        <v>132</v>
+      <c r="D81" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="E81" s="67"/>
-      <c r="F81" s="69" t="s">
+      <c r="F81" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G81" s="69" t="s">
+      <c r="G81" s="68" t="s">
         <v>38</v>
       </c>
       <c r="H81" s="67" t="s">
@@ -4527,218 +4526,218 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="61" customFormat="1">
-      <c r="A82" s="70">
+      <c r="A82" s="69">
         <v>81</v>
       </c>
-      <c r="B82" s="71">
+      <c r="B82" s="70">
         <v>12</v>
       </c>
-      <c r="C82" s="71">
-        <v>1</v>
-      </c>
-      <c r="D82" s="72" t="s">
+      <c r="C82" s="70">
+        <v>1</v>
+      </c>
+      <c r="D82" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E82" s="71" t="s">
+      <c r="E82" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="73"/>
-      <c r="G82" s="73"/>
-      <c r="H82" s="71" t="s">
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
+      <c r="H82" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="I82" s="70"/>
-      <c r="J82" s="70">
+      <c r="I82" s="69"/>
+      <c r="J82" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="61" customFormat="1">
-      <c r="A83" s="70">
+      <c r="A83" s="69">
         <v>82</v>
       </c>
-      <c r="B83" s="71">
+      <c r="B83" s="70">
         <v>12</v>
       </c>
-      <c r="C83" s="71">
+      <c r="C83" s="70">
         <v>2</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E83" s="71" t="s">
+      <c r="E83" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="73"/>
-      <c r="H83" s="71" t="s">
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
+      <c r="H83" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="I83" s="70"/>
-      <c r="J83" s="70">
+      <c r="I83" s="69"/>
+      <c r="J83" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="61" customFormat="1">
-      <c r="A84" s="70">
+      <c r="A84" s="69">
         <v>83</v>
       </c>
-      <c r="B84" s="71">
+      <c r="B84" s="70">
         <v>12</v>
       </c>
-      <c r="C84" s="71">
+      <c r="C84" s="70">
         <v>3</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E84" s="71" t="s">
+      <c r="E84" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="71" t="s">
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="I84" s="70"/>
-      <c r="J84" s="70">
+      <c r="I84" s="69"/>
+      <c r="J84" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="61" customFormat="1">
-      <c r="A85" s="70">
+      <c r="A85" s="69">
         <v>84</v>
       </c>
-      <c r="B85" s="71">
+      <c r="B85" s="70">
         <v>12</v>
       </c>
-      <c r="C85" s="71">
+      <c r="C85" s="70">
         <v>4</v>
       </c>
-      <c r="D85" s="72" t="s">
+      <c r="D85" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="71"/>
-      <c r="F85" s="73" t="s">
+      <c r="E85" s="70"/>
+      <c r="F85" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G85" s="73" t="s">
+      <c r="G85" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H85" s="71" t="s">
+      <c r="H85" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="I85" s="70"/>
-      <c r="J85" s="70"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="69"/>
     </row>
     <row r="86" spans="1:10" s="61" customFormat="1">
-      <c r="A86" s="70">
+      <c r="A86" s="69">
         <v>85</v>
       </c>
-      <c r="B86" s="71">
+      <c r="B86" s="70">
         <v>12</v>
       </c>
-      <c r="C86" s="71">
+      <c r="C86" s="70">
         <v>5</v>
       </c>
-      <c r="D86" s="72" t="s">
+      <c r="D86" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E86" s="71"/>
-      <c r="F86" s="73" t="s">
+      <c r="E86" s="70"/>
+      <c r="F86" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G86" s="73" t="s">
+      <c r="G86" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="74" t="s">
+      <c r="H86" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70">
+      <c r="I86" s="69"/>
+      <c r="J86" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="61" customFormat="1">
-      <c r="A87" s="70">
+      <c r="A87" s="69">
         <v>86</v>
       </c>
-      <c r="B87" s="71">
+      <c r="B87" s="70">
         <v>12</v>
       </c>
-      <c r="C87" s="71">
+      <c r="C87" s="70">
         <v>6</v>
       </c>
-      <c r="D87" s="72" t="s">
+      <c r="D87" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E87" s="71"/>
-      <c r="F87" s="73" t="s">
+      <c r="E87" s="70"/>
+      <c r="F87" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="73" t="s">
+      <c r="G87" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="H87" s="74" t="s">
+      <c r="H87" s="73" t="s">
         <v>119</v>
       </c>
-      <c r="I87" s="70"/>
-      <c r="J87" s="70">
+      <c r="I87" s="69"/>
+      <c r="J87" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="61" customFormat="1">
-      <c r="A88" s="70">
+      <c r="A88" s="69">
         <v>87</v>
       </c>
-      <c r="B88" s="71">
+      <c r="B88" s="70">
         <v>12</v>
       </c>
-      <c r="C88" s="71">
+      <c r="C88" s="70">
         <v>7</v>
       </c>
-      <c r="D88" s="72" t="s">
+      <c r="D88" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E88" s="71"/>
-      <c r="F88" s="73" t="s">
+      <c r="E88" s="70"/>
+      <c r="F88" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G88" s="73" t="s">
+      <c r="G88" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H88" s="74" t="s">
+      <c r="H88" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70">
+      <c r="I88" s="69"/>
+      <c r="J88" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="61" customFormat="1">
-      <c r="A89" s="70">
+      <c r="A89" s="69">
         <v>88</v>
       </c>
-      <c r="B89" s="71">
+      <c r="B89" s="70">
         <v>12</v>
       </c>
-      <c r="C89" s="71">
+      <c r="C89" s="70">
         <v>8</v>
       </c>
-      <c r="D89" s="72" t="s">
+      <c r="D89" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E89" s="71"/>
-      <c r="F89" s="73" t="s">
+      <c r="E89" s="70"/>
+      <c r="F89" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G89" s="73" t="s">
+      <c r="G89" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="71" t="s">
+      <c r="H89" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70">
+      <c r="I89" s="69"/>
+      <c r="J89" s="69">
         <v>1</v>
       </c>
     </row>
